--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.76</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,933 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.88</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2977,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,17 +2989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3008,14 +3029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3024,14 +3067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3040,14 +3105,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.44</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3056,14 +3143,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3072,13 +3181,1077 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.06</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.44</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2858,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3826,7 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4034,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4128,7 +4771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600718-东软集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.09</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.44</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3501,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4677,7 +5092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4771,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
